--- a/src/main/java/testdata/SubEventcreation.xlsx
+++ b/src/main/java/testdata/SubEventcreation.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://optimuminfosys-my.sharepoint.com/personal/selvakannan_arumugam_theoptimum_net/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D1B063-5C4D-4B42-AD06-A9EAFD11DCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{59F9313D-DA69-46EE-9F1B-A528ED3305C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3116E8FD-575F-4546-B41B-DC5D927FBC9A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B938FDE7-B1DF-47B7-B40B-E28D607D4EA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{874FB0A8-2EAA-432B-B9CB-B11CCAC51225}"/>
   </bookViews>
   <sheets>
-    <sheet name="SubEventCreation" sheetId="1" r:id="rId1"/>
+    <sheet name="Subeventcreation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,29 +36,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>text_event_globalsearch</t>
   </si>
   <si>
+    <t>button_event_searchresult</t>
+  </si>
+  <si>
+    <t>tab_subevents</t>
+  </si>
+  <si>
+    <t>button_create_subevents</t>
+  </si>
+  <si>
+    <t>tab_subevents_basics</t>
+  </si>
+  <si>
+    <t>button_sub_event_type</t>
+  </si>
+  <si>
+    <t>searchtext_sub_event_typesearch</t>
+  </si>
+  <si>
+    <t>text_subevent_description</t>
+  </si>
+  <si>
+    <t>button_subevent_eventrestiction</t>
+  </si>
+  <si>
+    <t>searchtext_subevent_eventrestictionsearch</t>
+  </si>
+  <si>
+    <t>toggle_subevent_IsOptional</t>
+  </si>
+  <si>
+    <t>text_subevent_name</t>
+  </si>
+  <si>
+    <t>button_Entry_Type</t>
+  </si>
+  <si>
+    <t>searchtext_Entry_Typesearch</t>
+  </si>
+  <si>
+    <t>text_subevent_totalmatches_no</t>
+  </si>
+  <si>
+    <t>button_subevent_entriesranking_year</t>
+  </si>
+  <si>
+    <t>searchtext_subevent_entriesranking_yearsearch</t>
+  </si>
+  <si>
+    <t>button_subevent_entriesranking_week</t>
+  </si>
+  <si>
+    <t>searchtext_subevent_entriesranking_weeksearch</t>
+  </si>
+  <si>
+    <t>button_subevent_seddingranking_year</t>
+  </si>
+  <si>
+    <t>searchtext_subevent_seddingranking_yearsearch</t>
+  </si>
+  <si>
     <t>button_subevent_seedingranking_week</t>
   </si>
   <si>
     <t>searchtext_subevent_seedingranking_weeksearch</t>
   </si>
   <si>
-    <t>button_subevent_entriesranking_week</t>
-  </si>
-  <si>
-    <t>searchtext_subevent_entriesranking_weeksearch</t>
-  </si>
-  <si>
-    <t>button_subevent_seddingranking_year</t>
-  </si>
-  <si>
-    <t>searchtext_subevent_seddingranking_yearsearch</t>
-  </si>
-  <si>
     <t>date_subevent_entries_deadline</t>
   </si>
   <si>
@@ -92,33 +140,21 @@
     <t>checkbox_subevent_phases_AddPhase_selectphasesearchresult</t>
   </si>
   <si>
-    <t>text_subevent_phases_AddPhase_Draw</t>
-  </si>
-  <si>
     <t>date_subevent_phases_AddPhase_StartDateTime</t>
   </si>
   <si>
     <t>date_subevent_phases_AddPhase_EndDateTime</t>
   </si>
   <si>
-    <t>button_subevent_phases_AddPhase_proceed</t>
-  </si>
-  <si>
     <t>button_subevent_phases_AddPhase_cancel</t>
   </si>
   <si>
     <t>tab_subevents_Prize</t>
   </si>
   <si>
-    <t>text_subevents_prize_search</t>
-  </si>
-  <si>
     <t>button_subevent_addnew_prize</t>
   </si>
   <si>
-    <t>text_subevents_prize_AddPrizeInformation_selecteventdraw</t>
-  </si>
-  <si>
     <t>button_subevent_prize_AddPrizeInformation_selectphase</t>
   </si>
   <si>
@@ -143,87 +179,27 @@
     <t>button_subevent_prize_AddPrizeInformation_cancel</t>
   </si>
   <si>
-    <t>button_subevent_prize_AddPrizeInformation_selectcurrency</t>
-  </si>
-  <si>
-    <t>text_subevent_prize_AddPrizeInformation_selectcurrencysearch</t>
-  </si>
-  <si>
-    <t>checkbox_subevent_prize_AddPrizeInformation_selectcurrencysearchresult</t>
-  </si>
-  <si>
-    <t>button_subevent_prize_AddPrizeInformation_proceed</t>
-  </si>
-  <si>
     <t>tab_subevents_Review</t>
   </si>
   <si>
     <t>button_subevent_Create</t>
   </si>
   <si>
-    <t>tab_subevent_Cancel</t>
-  </si>
-  <si>
     <t>2737</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>button_event_searchresult</t>
-  </si>
-  <si>
-    <t>tab_subevents</t>
-  </si>
-  <si>
-    <t>button_create_subevents</t>
-  </si>
-  <si>
-    <t>tab_subevents_basics</t>
-  </si>
-  <si>
-    <t>button_sub_event_type</t>
-  </si>
-  <si>
-    <t>searchtext_sub_event_typesearch</t>
-  </si>
-  <si>
-    <t>text_subevent_description</t>
-  </si>
-  <si>
-    <t>button_subevent_eventrestiction</t>
-  </si>
-  <si>
-    <t>searchtext_subevent_eventrestictionsearch</t>
-  </si>
-  <si>
-    <t>toggle_subevent_IsOptional</t>
-  </si>
-  <si>
-    <t>text_subevent_name</t>
-  </si>
-  <si>
-    <t>button_Entry_Type</t>
-  </si>
-  <si>
-    <t>searchtext_Entry_Typesearch</t>
-  </si>
-  <si>
-    <t>text_subevent_totalmatches_no</t>
-  </si>
-  <si>
-    <t>button_subevent_entriesranking_year</t>
-  </si>
-  <si>
-    <t>searchtext_subevent_entriesranking_yearsearch</t>
-  </si>
-  <si>
     <t>men's singles</t>
   </si>
   <si>
     <t>wtt</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -239,7 +215,13 @@
     <t>main</t>
   </si>
   <si>
-    <t>open</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -621,405 +603,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CCDE34-B043-4DFE-AA0F-1B0D847208DC}">
-  <dimension ref="A1:BF6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F3585C-659B-4DD5-B514-584F2D181BBE}">
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="40" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AD2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="AH2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="AS2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>43</v>
-      </c>
       <c r="AU2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AV2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AW2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/testdata/SubEventcreation.xlsx
+++ b/src/main/java/testdata/SubEventcreation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://optimuminfosys-my.sharepoint.com/personal/selvakannan_arumugam_theoptimum_net/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{59F9313D-DA69-46EE-9F1B-A528ED3305C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3116E8FD-575F-4546-B41B-DC5D927FBC9A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F443BEBA-1A2F-4DD0-B264-A6CE21AB3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{874FB0A8-2EAA-432B-B9CB-B11CCAC51225}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
-  <si>
-    <t>text_event_globalsearch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>button_event_searchresult</t>
   </si>
@@ -146,9 +143,6 @@
     <t>date_subevent_phases_AddPhase_EndDateTime</t>
   </si>
   <si>
-    <t>button_subevent_phases_AddPhase_cancel</t>
-  </si>
-  <si>
     <t>tab_subevents_Prize</t>
   </si>
   <si>
@@ -176,18 +170,12 @@
     <t>text_subevent_prize_AddPrizeInformation_prizemoney</t>
   </si>
   <si>
-    <t>button_subevent_prize_AddPrizeInformation_cancel</t>
-  </si>
-  <si>
     <t>tab_subevents_Review</t>
   </si>
   <si>
     <t>button_subevent_Create</t>
   </si>
   <si>
-    <t>2737</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -222,6 +210,45 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>button_subevent_draws</t>
+  </si>
+  <si>
+    <t>button_subevent_phases_AddPhase_Draw</t>
+  </si>
+  <si>
+    <t>text_subevent_phases_AddPhase_Drawsearch</t>
+  </si>
+  <si>
+    <t>checkbox_subevent_phases_AddPhase_Drawsearchresult</t>
+  </si>
+  <si>
+    <t>button_subevent_phases_AddPhase_proceed</t>
+  </si>
+  <si>
+    <t>button_subevents_prize_AddPrizeInformation_selecteventdraw</t>
+  </si>
+  <si>
+    <t>text_subevents_prize_AddPrizeInformation_selecteventdrawsearch</t>
+  </si>
+  <si>
+    <t>checkbox_subevents_prize_AddPrizeInformation_selecteventdrawsearchresult</t>
+  </si>
+  <si>
+    <t>button_subevent_prize_AddPrizeInformation_proceed</t>
+  </si>
+  <si>
+    <t>text_subevent_drawssearch</t>
+  </si>
+  <si>
+    <t>checkbox_subevent_drawssearch</t>
+  </si>
+  <si>
+    <t>button_subevent_drawsicon</t>
+  </si>
+  <si>
+    <t>button_create_subevents_next</t>
   </si>
 </sst>
 </file>
@@ -604,13 +631,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F3585C-659B-4DD5-B514-584F2D181BBE}">
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="54.5703125" customWidth="1"/>
+    <col min="31" max="31" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="40" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40" customWidth="1"/>
+    <col min="34" max="34" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="59.7109375" customWidth="1"/>
+    <col min="42" max="42" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="40" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="50.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,222 +744,282 @@
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="N2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AL2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB2" t="s">
         <v>56</v>
       </c>
-      <c r="T2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="BC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>50</v>
+      <c r="BE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/SubEventcreation.xlsx
+++ b/src/main/java/testdata/SubEventcreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F443BEBA-1A2F-4DD0-B264-A6CE21AB3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02079737-A8D0-46C5-B13D-1AC414934DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{874FB0A8-2EAA-432B-B9CB-B11CCAC51225}"/>
   </bookViews>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F3585C-659B-4DD5-B514-584F2D181BBE}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/testdata/SubEventcreation.xlsx
+++ b/src/main/java/testdata/SubEventcreation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02079737-A8D0-46C5-B13D-1AC414934DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8584E1DB-E941-4C95-A452-17B074665C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{874FB0A8-2EAA-432B-B9CB-B11CCAC51225}"/>
   </bookViews>
   <sheets>
-    <sheet name="Subeventcreation" sheetId="1" r:id="rId1"/>
+    <sheet name="Closed" sheetId="1" r:id="rId1"/>
+    <sheet name="Open" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="74">
   <si>
     <t>button_event_searchresult</t>
   </si>
@@ -185,9 +186,6 @@
     <t>wtt</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -249,6 +247,18 @@
   </si>
   <si>
     <t>button_create_subevents_next</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Men's Doubles</t>
+  </si>
+  <si>
+    <t>Women's Singles</t>
+  </si>
+  <si>
+    <t>Women's Doubles</t>
   </si>
 </sst>
 </file>
@@ -631,16 +641,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F3585C-659B-4DD5-B514-584F2D181BBE}">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="54.5703125" customWidth="1"/>
     <col min="31" max="31" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -744,16 +758,16 @@
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>26</v>
@@ -762,7 +776,7 @@
         <v>27</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>28</v>
@@ -780,13 +794,13 @@
         <v>32</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>33</v>
@@ -795,7 +809,7 @@
         <v>34</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>35</v>
@@ -804,13 +818,13 @@
         <v>36</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>37</v>
@@ -834,7 +848,7 @@
         <v>43</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>44</v>
@@ -881,148 +895,699 @@
         <v>46</v>
       </c>
       <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
         <v>52</v>
       </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
         <v>52</v>
       </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AL3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AZ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB3" t="s">
         <v>55</v>
       </c>
-      <c r="AL2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="BC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="AL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AW2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB4" t="s">
         <v>55</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="BE4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG5" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442EBB8C-D90A-4272-9591-7E7480FCD1DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/testdata/SubEventcreation.xlsx
+++ b/src/main/java/testdata/SubEventcreation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8584E1DB-E941-4C95-A452-17B074665C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C04E249-8165-4B37-B224-C3704170A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{874FB0A8-2EAA-432B-B9CB-B11CCAC51225}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{874FB0A8-2EAA-432B-B9CB-B11CCAC51225}"/>
   </bookViews>
   <sheets>
     <sheet name="Closed" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="75">
   <si>
     <t>button_event_searchresult</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Women's Doubles</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -643,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F3585C-659B-4DD5-B514-584F2D181BBE}">
   <dimension ref="A1:BG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:BG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,14 +1583,914 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442EBB8C-D90A-4272-9591-7E7480FCD1DA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>